--- a/data/pca/factorExposure/factorExposure_2015-04-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-04-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02191194138658141</v>
+        <v>0.01182092323931396</v>
       </c>
       <c r="C2">
-        <v>0.03026474813566558</v>
+        <v>0.05644396218313455</v>
       </c>
       <c r="D2">
-        <v>0.1250202857275365</v>
+        <v>0.1223420396981979</v>
       </c>
       <c r="E2">
-        <v>-0.03618043653716744</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03448004278881476</v>
+      </c>
+      <c r="F2">
+        <v>-0.02801867889430484</v>
+      </c>
+      <c r="G2">
+        <v>-0.0587701449503604</v>
+      </c>
+      <c r="H2">
+        <v>0.1446008721592235</v>
+      </c>
+      <c r="I2">
+        <v>0.04045388084729782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0435802211077651</v>
+        <v>0.01672685757467287</v>
       </c>
       <c r="C4">
-        <v>0.07179326092875395</v>
+        <v>0.1070762155276583</v>
       </c>
       <c r="D4">
-        <v>0.08895246240185672</v>
+        <v>0.1171323323646532</v>
       </c>
       <c r="E4">
-        <v>-0.1091188689189352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02552438313505333</v>
+      </c>
+      <c r="F4">
+        <v>-0.1005440719881407</v>
+      </c>
+      <c r="G4">
+        <v>0.01944206507105208</v>
+      </c>
+      <c r="H4">
+        <v>0.03270629703806896</v>
+      </c>
+      <c r="I4">
+        <v>-0.09611631263274972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.0276244611395876</v>
+        <v>0.03203149798981328</v>
       </c>
       <c r="C6">
-        <v>0.01682424701497079</v>
+        <v>0.04044250810462434</v>
       </c>
       <c r="D6">
-        <v>0.1158729671221386</v>
+        <v>0.1083369507234775</v>
       </c>
       <c r="E6">
-        <v>-0.07426128973091536</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.0745575209980239</v>
+      </c>
+      <c r="F6">
+        <v>-0.04547303530947133</v>
+      </c>
+      <c r="G6">
+        <v>0.03776565533146905</v>
+      </c>
+      <c r="H6">
+        <v>0.01787368434592745</v>
+      </c>
+      <c r="I6">
+        <v>-0.003226239211786946</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.001874521520971136</v>
+        <v>0.006439840389786324</v>
       </c>
       <c r="C7">
-        <v>0.02558749719707279</v>
+        <v>0.04079039865438278</v>
       </c>
       <c r="D7">
-        <v>0.1050050274698014</v>
+        <v>0.08925012508760416</v>
       </c>
       <c r="E7">
-        <v>-0.03640869721327698</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.0573082697188435</v>
+      </c>
+      <c r="F7">
+        <v>-0.008672136900819537</v>
+      </c>
+      <c r="G7">
+        <v>0.07193709493648043</v>
+      </c>
+      <c r="H7">
+        <v>0.04214921427466267</v>
+      </c>
+      <c r="I7">
+        <v>-0.06025050496069066</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.002924894377557395</v>
+        <v>-0.006659768433345229</v>
       </c>
       <c r="C8">
-        <v>0.02915516557227656</v>
+        <v>0.03979952559716642</v>
       </c>
       <c r="D8">
-        <v>0.07897190396042726</v>
+        <v>0.06539943409704579</v>
       </c>
       <c r="E8">
-        <v>-0.04927098433143631</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.04309444203410577</v>
+      </c>
+      <c r="F8">
+        <v>-0.04411712026880445</v>
+      </c>
+      <c r="G8">
+        <v>-0.0403296252507618</v>
+      </c>
+      <c r="H8">
+        <v>0.0392452176909986</v>
+      </c>
+      <c r="I8">
+        <v>-0.03860429229373462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.0329003909230215</v>
+        <v>0.01250710879703096</v>
       </c>
       <c r="C9">
-        <v>0.0638158822366487</v>
+        <v>0.08938617596414995</v>
       </c>
       <c r="D9">
-        <v>0.0958434198561241</v>
+        <v>0.1034499207371673</v>
       </c>
       <c r="E9">
-        <v>-0.09011367906320593</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.02253146501630988</v>
+      </c>
+      <c r="F9">
+        <v>-0.0673942605029578</v>
+      </c>
+      <c r="G9">
+        <v>0.04420164985089068</v>
+      </c>
+      <c r="H9">
+        <v>0.0371865587246422</v>
+      </c>
+      <c r="I9">
+        <v>-0.05534928459235029</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1839898414348685</v>
+        <v>0.2431910126331533</v>
       </c>
       <c r="C10">
-        <v>-0.1629666849858645</v>
+        <v>-0.08710674583934536</v>
       </c>
       <c r="D10">
-        <v>-0.02270707445875649</v>
+        <v>-0.01162086090492764</v>
       </c>
       <c r="E10">
-        <v>-0.03923533718949562</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01632656165170302</v>
+      </c>
+      <c r="F10">
+        <v>-0.03987954638315189</v>
+      </c>
+      <c r="G10">
+        <v>-0.01861292203703561</v>
+      </c>
+      <c r="H10">
+        <v>-0.01094067974002675</v>
+      </c>
+      <c r="I10">
+        <v>0.01336627522747314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.01687820588226963</v>
+        <v>0.01023111996952529</v>
       </c>
       <c r="C11">
-        <v>0.04221384657143509</v>
+        <v>0.05884757185762515</v>
       </c>
       <c r="D11">
-        <v>0.04270933572876574</v>
+        <v>0.03746587680429272</v>
       </c>
       <c r="E11">
-        <v>0.00737899676578557</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.0263072511467242</v>
+      </c>
+      <c r="F11">
+        <v>0.01346978647613582</v>
+      </c>
+      <c r="G11">
+        <v>0.03841464053882365</v>
+      </c>
+      <c r="H11">
+        <v>0.01773076262679015</v>
+      </c>
+      <c r="I11">
+        <v>-0.0405037306662297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.0154283028723895</v>
+        <v>0.01006816818215461</v>
       </c>
       <c r="C12">
-        <v>0.04291421989850272</v>
+        <v>0.05136780924533272</v>
       </c>
       <c r="D12">
-        <v>0.05555186109750981</v>
+        <v>0.04472938805436007</v>
       </c>
       <c r="E12">
-        <v>-0.005603528573416673</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.02106395324539043</v>
+      </c>
+      <c r="F12">
+        <v>0.01502483721450243</v>
+      </c>
+      <c r="G12">
+        <v>0.06242413068804682</v>
+      </c>
+      <c r="H12">
+        <v>0.03200260985413589</v>
+      </c>
+      <c r="I12">
+        <v>-0.015553597657585</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.006065361581434923</v>
+        <v>0.001960380431907317</v>
       </c>
       <c r="C13">
-        <v>0.02679700258293103</v>
+        <v>0.05857650955858184</v>
       </c>
       <c r="D13">
-        <v>0.1190314866045506</v>
+        <v>0.1546463406207683</v>
       </c>
       <c r="E13">
-        <v>-0.06828253570885506</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.04691507645645356</v>
+      </c>
+      <c r="F13">
+        <v>-0.03420201303512217</v>
+      </c>
+      <c r="G13">
+        <v>0.03999602411861776</v>
+      </c>
+      <c r="H13">
+        <v>0.1015783146364096</v>
+      </c>
+      <c r="I13">
+        <v>0.0376978039936079</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.003373164818577139</v>
+        <v>0.003231625845618154</v>
       </c>
       <c r="C14">
-        <v>0.01981940068354618</v>
+        <v>0.03491160754962914</v>
       </c>
       <c r="D14">
-        <v>0.08006172937634598</v>
+        <v>0.08761445630544037</v>
       </c>
       <c r="E14">
-        <v>-0.03052302145124081</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.06392483496047048</v>
+      </c>
+      <c r="F14">
+        <v>-0.02548073676925642</v>
+      </c>
+      <c r="G14">
+        <v>0.0801895369850632</v>
+      </c>
+      <c r="H14">
+        <v>0.1196015602204371</v>
+      </c>
+      <c r="I14">
+        <v>-0.03872735048796908</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.003463477248926969</v>
+        <v>-0.005174878305256393</v>
       </c>
       <c r="C15">
-        <v>0.01236223514968965</v>
+        <v>0.02848248833147422</v>
       </c>
       <c r="D15">
-        <v>0.037667889298644</v>
+        <v>0.05621855670832732</v>
       </c>
       <c r="E15">
-        <v>-0.006451980495696587</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.02449204601703164</v>
+      </c>
+      <c r="F15">
+        <v>-0.006808752786927811</v>
+      </c>
+      <c r="G15">
+        <v>0.01609748774250519</v>
+      </c>
+      <c r="H15">
+        <v>0.04746093629509466</v>
+      </c>
+      <c r="I15">
+        <v>-0.03693149290656538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01569453206980144</v>
+        <v>0.008881123015355893</v>
       </c>
       <c r="C16">
-        <v>0.03875221471071671</v>
+        <v>0.05105071180974653</v>
       </c>
       <c r="D16">
-        <v>0.04846422641045326</v>
+        <v>0.04052703232487222</v>
       </c>
       <c r="E16">
-        <v>-0.00526845034557009</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.02711896950083022</v>
+      </c>
+      <c r="F16">
+        <v>0.006959983140911913</v>
+      </c>
+      <c r="G16">
+        <v>0.04622806233520949</v>
+      </c>
+      <c r="H16">
+        <v>0.01481741151143337</v>
+      </c>
+      <c r="I16">
+        <v>-0.02691932350379904</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>2.791815981138718e-05</v>
+        <v>-0.002693342692413729</v>
       </c>
       <c r="C19">
-        <v>0.02163834831167266</v>
+        <v>0.01750887698510956</v>
       </c>
       <c r="D19">
-        <v>0.06838353797941862</v>
+        <v>0.04785810186102338</v>
       </c>
       <c r="E19">
-        <v>-0.03977870476648249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.004886111132344518</v>
+      </c>
+      <c r="F19">
+        <v>-0.0117985616627117</v>
+      </c>
+      <c r="G19">
+        <v>0.01274884989562364</v>
+      </c>
+      <c r="H19">
+        <v>0.04672783889348488</v>
+      </c>
+      <c r="I19">
+        <v>-0.003289490592334426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.002661799485254791</v>
+        <v>0.004247795401617695</v>
       </c>
       <c r="C20">
-        <v>0.02659012324843607</v>
+        <v>0.04322191289770422</v>
       </c>
       <c r="D20">
-        <v>0.06863050638336164</v>
+        <v>0.08054643121777717</v>
       </c>
       <c r="E20">
-        <v>-0.05063460640438079</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.03137839070085562</v>
+      </c>
+      <c r="F20">
+        <v>-0.02637629422930331</v>
+      </c>
+      <c r="G20">
+        <v>0.04885973258464348</v>
+      </c>
+      <c r="H20">
+        <v>0.0233192095101588</v>
+      </c>
+      <c r="I20">
+        <v>-0.05535059072118963</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.008448858136225722</v>
+        <v>0.004413007573952566</v>
       </c>
       <c r="C21">
-        <v>0.03214362258926382</v>
+        <v>0.05087807971473135</v>
       </c>
       <c r="D21">
-        <v>0.1201988047228364</v>
+        <v>0.1169329361543757</v>
       </c>
       <c r="E21">
-        <v>-0.1073020195307744</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.04261078454549493</v>
+      </c>
+      <c r="F21">
+        <v>-0.08715338370771146</v>
+      </c>
+      <c r="G21">
+        <v>0.08195968790526777</v>
+      </c>
+      <c r="H21">
+        <v>0.1842944718089316</v>
+      </c>
+      <c r="I21">
+        <v>0.003861972820560508</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.002101739845988282</v>
+        <v>-0.01215701061042538</v>
       </c>
       <c r="C22">
-        <v>0.07106226061691556</v>
+        <v>0.09455587804222865</v>
       </c>
       <c r="D22">
-        <v>0.2972370353825662</v>
+        <v>0.2718264727452357</v>
       </c>
       <c r="E22">
-        <v>-0.1015502117844389</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.09900994657007926</v>
+      </c>
+      <c r="F22">
+        <v>-0.03014664573914439</v>
+      </c>
+      <c r="G22">
+        <v>-0.5312379391368935</v>
+      </c>
+      <c r="H22">
+        <v>-0.1344545632962358</v>
+      </c>
+      <c r="I22">
+        <v>0.06349586591357337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.002512692010558138</v>
+        <v>-0.008942160665680843</v>
       </c>
       <c r="C23">
-        <v>0.07135018014215393</v>
+        <v>0.09635146803135747</v>
       </c>
       <c r="D23">
-        <v>0.2962404968928533</v>
+        <v>0.2741957811277445</v>
       </c>
       <c r="E23">
-        <v>-0.1017088340910793</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.09388533502378392</v>
+      </c>
+      <c r="F23">
+        <v>-0.03310781835560233</v>
+      </c>
+      <c r="G23">
+        <v>-0.5141728938109026</v>
+      </c>
+      <c r="H23">
+        <v>-0.1267579654954513</v>
+      </c>
+      <c r="I23">
+        <v>0.06202449162051996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02193801803880243</v>
+        <v>0.009755832668026152</v>
       </c>
       <c r="C24">
-        <v>0.05869592379165352</v>
+        <v>0.06809879674573747</v>
       </c>
       <c r="D24">
-        <v>0.05546122453549757</v>
+        <v>0.04241968803208287</v>
       </c>
       <c r="E24">
-        <v>-0.005758216733721331</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.03289204507370153</v>
+      </c>
+      <c r="F24">
+        <v>0.006050177490317071</v>
+      </c>
+      <c r="G24">
+        <v>0.04967394627637919</v>
+      </c>
+      <c r="H24">
+        <v>0.04061425028495098</v>
+      </c>
+      <c r="I24">
+        <v>-0.04341927355109455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02222516890494994</v>
+        <v>0.01374022989312568</v>
       </c>
       <c r="C25">
-        <v>0.05091847000355127</v>
+        <v>0.06274843282365999</v>
       </c>
       <c r="D25">
-        <v>0.05437297189316469</v>
+        <v>0.04703190608057024</v>
       </c>
       <c r="E25">
-        <v>-0.01362849818121868</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.0202451337221513</v>
+      </c>
+      <c r="F25">
+        <v>0.004546769941779692</v>
+      </c>
+      <c r="G25">
+        <v>0.03795048286143205</v>
+      </c>
+      <c r="H25">
+        <v>0.01395561040584542</v>
+      </c>
+      <c r="I25">
+        <v>-0.02486535629782567</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01019216293844354</v>
+        <v>0.01743543440725438</v>
       </c>
       <c r="C26">
-        <v>0.01640564295850987</v>
+        <v>0.02932148423404985</v>
       </c>
       <c r="D26">
-        <v>0.06154983797524403</v>
+        <v>0.05379400661078235</v>
       </c>
       <c r="E26">
-        <v>-0.03810747078301609</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.04367197407010963</v>
+      </c>
+      <c r="F26">
+        <v>-0.04324418296631376</v>
+      </c>
+      <c r="G26">
+        <v>0.05065548332033126</v>
+      </c>
+      <c r="H26">
+        <v>0.08373384895940506</v>
+      </c>
+      <c r="I26">
+        <v>-0.04084715612275421</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2676554675313005</v>
+        <v>0.3170953005188227</v>
       </c>
       <c r="C28">
-        <v>-0.186902918241447</v>
+        <v>-0.0874186525551509</v>
       </c>
       <c r="D28">
-        <v>-0.009488321295630665</v>
+        <v>-0.0240449361990426</v>
       </c>
       <c r="E28">
-        <v>-0.03707573073634362</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.05055741748657826</v>
+      </c>
+      <c r="F28">
+        <v>-0.04260773366101814</v>
+      </c>
+      <c r="G28">
+        <v>-0.05687367622840966</v>
+      </c>
+      <c r="H28">
+        <v>0.03126721263830535</v>
+      </c>
+      <c r="I28">
+        <v>-0.01317907544840812</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.001869255134005078</v>
+        <v>0.0006368648370016197</v>
       </c>
       <c r="C29">
-        <v>0.02392040574052701</v>
+        <v>0.04067007111008409</v>
       </c>
       <c r="D29">
-        <v>0.07620346872900384</v>
+        <v>0.09048999845759741</v>
       </c>
       <c r="E29">
-        <v>-0.04019343422788247</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.07088341291241279</v>
+      </c>
+      <c r="F29">
+        <v>-0.02772478600528632</v>
+      </c>
+      <c r="G29">
+        <v>0.1063712652287297</v>
+      </c>
+      <c r="H29">
+        <v>0.1317277654289129</v>
+      </c>
+      <c r="I29">
+        <v>-0.04279663315133209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02520138279002153</v>
+        <v>0.01285346264400811</v>
       </c>
       <c r="C30">
-        <v>0.07041225174437483</v>
+        <v>0.0963589026130259</v>
       </c>
       <c r="D30">
-        <v>0.1408837615783616</v>
+        <v>0.1258335424785309</v>
       </c>
       <c r="E30">
-        <v>-0.05671822055510325</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.06466848053817008</v>
+      </c>
+      <c r="F30">
+        <v>-0.02074225059050844</v>
+      </c>
+      <c r="G30">
+        <v>0.01446380148299616</v>
+      </c>
+      <c r="H30">
+        <v>0.02572764200722085</v>
+      </c>
+      <c r="I30">
+        <v>-0.06726282497810504</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.03469658911707072</v>
+        <v>0.00780936229946114</v>
       </c>
       <c r="C31">
-        <v>0.08534222216165455</v>
+        <v>0.09568460249005616</v>
       </c>
       <c r="D31">
-        <v>0.05463670603676843</v>
+        <v>0.03548480640036892</v>
       </c>
       <c r="E31">
-        <v>-0.02589156963674798</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.02318387531542678</v>
+      </c>
+      <c r="F31">
+        <v>-0.01614643402615672</v>
+      </c>
+      <c r="G31">
+        <v>0.02320931416190091</v>
+      </c>
+      <c r="H31">
+        <v>0.03286416485559689</v>
+      </c>
+      <c r="I31">
+        <v>-0.02417505114397065</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01783923362509171</v>
+        <v>0.01286449631042593</v>
       </c>
       <c r="C32">
-        <v>0.03970267883417759</v>
+        <v>0.05380845685509842</v>
       </c>
       <c r="D32">
-        <v>0.07081277755382491</v>
+        <v>0.0769167795070602</v>
       </c>
       <c r="E32">
-        <v>-0.06027108742632598</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.0002894596413085963</v>
+      </c>
+      <c r="F32">
+        <v>-0.0440420315779031</v>
+      </c>
+      <c r="G32">
+        <v>0.02959271933826559</v>
+      </c>
+      <c r="H32">
+        <v>0.06060891961025373</v>
+      </c>
+      <c r="I32">
+        <v>-0.0108871120857361</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.006720877506484466</v>
+        <v>0.006134998953906468</v>
       </c>
       <c r="C33">
-        <v>0.04259117746904131</v>
+        <v>0.06249806723364684</v>
       </c>
       <c r="D33">
-        <v>0.1079186995515855</v>
+        <v>0.1118379439353276</v>
       </c>
       <c r="E33">
-        <v>-0.05869280821684346</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03882240551281962</v>
+      </c>
+      <c r="F33">
+        <v>-0.02866595776796334</v>
+      </c>
+      <c r="G33">
+        <v>0.03373653877714496</v>
+      </c>
+      <c r="H33">
+        <v>0.04418742103683525</v>
+      </c>
+      <c r="I33">
+        <v>-0.02817681402989774</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02050646426974905</v>
+        <v>0.008225410102221282</v>
       </c>
       <c r="C34">
-        <v>0.06057518850026986</v>
+        <v>0.06359108758547866</v>
       </c>
       <c r="D34">
-        <v>0.05322645762215595</v>
+        <v>0.02375315273114479</v>
       </c>
       <c r="E34">
-        <v>0.0358015742754678</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.0287101209652356</v>
+      </c>
+      <c r="F34">
+        <v>0.04006166001280667</v>
+      </c>
+      <c r="G34">
+        <v>0.03586441676721981</v>
+      </c>
+      <c r="H34">
+        <v>0.02654513500900293</v>
+      </c>
+      <c r="I34">
+        <v>-0.02016807255182954</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.003212232793888724</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.01280002012930932</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.03186169422896439</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.00945168425941603</v>
+      </c>
+      <c r="F35">
+        <v>-0.01628426167229811</v>
+      </c>
+      <c r="G35">
+        <v>0.0433486014825952</v>
+      </c>
+      <c r="H35">
+        <v>0.04512425966022789</v>
+      </c>
+      <c r="I35">
+        <v>-0.02664026810183042</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.007057026830665375</v>
+        <v>0.01124216631910527</v>
       </c>
       <c r="C36">
-        <v>0.009489829045956277</v>
+        <v>0.02450887178090239</v>
       </c>
       <c r="D36">
-        <v>0.06399308821666794</v>
+        <v>0.06682627896677309</v>
       </c>
       <c r="E36">
-        <v>-0.05970252351290566</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.03616140592541269</v>
+      </c>
+      <c r="F36">
+        <v>-0.04798670996104518</v>
+      </c>
+      <c r="G36">
+        <v>0.03619597670261046</v>
+      </c>
+      <c r="H36">
+        <v>0.05475968541462627</v>
+      </c>
+      <c r="I36">
+        <v>-0.02996646521112726</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.006172917602417188</v>
+        <v>0.009839213012771377</v>
       </c>
       <c r="C38">
-        <v>0.008784530590895828</v>
+        <v>0.02709603022504944</v>
       </c>
       <c r="D38">
-        <v>0.07793880000787856</v>
+        <v>0.08500539327932659</v>
       </c>
       <c r="E38">
-        <v>-0.01952924707980471</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.01738519802810122</v>
+      </c>
+      <c r="F38">
+        <v>-0.002784787997915093</v>
+      </c>
+      <c r="G38">
+        <v>0.01081042773132964</v>
+      </c>
+      <c r="H38">
+        <v>0.05147182227690549</v>
+      </c>
+      <c r="I38">
+        <v>-0.06498927920308734</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.01518167684302617</v>
+        <v>0.003285726967673056</v>
       </c>
       <c r="C39">
-        <v>0.0616540024503051</v>
+        <v>0.08162782258970373</v>
       </c>
       <c r="D39">
-        <v>0.09960267335733304</v>
+        <v>0.08495841064473011</v>
       </c>
       <c r="E39">
-        <v>-0.01544568158673015</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.05867193633735319</v>
+      </c>
+      <c r="F39">
+        <v>0.006851347316378336</v>
+      </c>
+      <c r="G39">
+        <v>0.07352930903848963</v>
+      </c>
+      <c r="H39">
+        <v>0.06227961359771531</v>
+      </c>
+      <c r="I39">
+        <v>-0.05525154296186947</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01848529995614537</v>
+        <v>0.01341868936468231</v>
       </c>
       <c r="C40">
-        <v>0.02380561080652351</v>
+        <v>0.04381860562787881</v>
       </c>
       <c r="D40">
-        <v>0.1096268716689533</v>
+        <v>0.09080819379863475</v>
       </c>
       <c r="E40">
-        <v>-0.01045468145653597</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.05854747569065748</v>
+      </c>
+      <c r="F40">
+        <v>0.0301542775358756</v>
+      </c>
+      <c r="G40">
+        <v>-0.003107604400439303</v>
+      </c>
+      <c r="H40">
+        <v>0.09928709457791801</v>
+      </c>
+      <c r="I40">
+        <v>-0.003356475332195648</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.009304969870263202</v>
+        <v>0.01605708810048509</v>
       </c>
       <c r="C41">
-        <v>0.005721906710570888</v>
+        <v>0.02113245193875364</v>
       </c>
       <c r="D41">
-        <v>0.02996942074774106</v>
+        <v>0.04137353120981582</v>
       </c>
       <c r="E41">
-        <v>-0.03069611605363583</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.002906386392025288</v>
+      </c>
+      <c r="F41">
+        <v>-0.02370108831525523</v>
+      </c>
+      <c r="G41">
+        <v>0.01869559750350382</v>
+      </c>
+      <c r="H41">
+        <v>0.03470305257097567</v>
+      </c>
+      <c r="I41">
+        <v>-0.02516182986385358</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.0006258036262201397</v>
+        <v>0.008260987250240378</v>
       </c>
       <c r="C43">
-        <v>0.004821275823464432</v>
+        <v>0.01744089088457643</v>
       </c>
       <c r="D43">
-        <v>0.04872861300559885</v>
+        <v>0.04995946281589796</v>
       </c>
       <c r="E43">
-        <v>-0.02918022955588668</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01498245329758113</v>
+      </c>
+      <c r="F43">
+        <v>-0.02248271199253401</v>
+      </c>
+      <c r="G43">
+        <v>0.02698314555276455</v>
+      </c>
+      <c r="H43">
+        <v>0.0397389806947526</v>
+      </c>
+      <c r="I43">
+        <v>-0.04532549958328854</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.02021835708603928</v>
+        <v>0.01047749832686325</v>
       </c>
       <c r="C44">
-        <v>0.02496361510409333</v>
+        <v>0.04944723013913702</v>
       </c>
       <c r="D44">
-        <v>0.08060398515497261</v>
+        <v>0.09875764663506187</v>
       </c>
       <c r="E44">
-        <v>-0.06563869362371029</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.0476752836229089</v>
+      </c>
+      <c r="F44">
+        <v>-0.03641905259492968</v>
+      </c>
+      <c r="G44">
+        <v>0.009863692850136309</v>
+      </c>
+      <c r="H44">
+        <v>0.05792826634647905</v>
+      </c>
+      <c r="I44">
+        <v>-0.05024735472970841</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.00603485071904676</v>
+        <v>-0.0008637408750530207</v>
       </c>
       <c r="C46">
-        <v>0.03228398200680546</v>
+        <v>0.04426351757075049</v>
       </c>
       <c r="D46">
-        <v>0.07383250391600459</v>
+        <v>0.06644555275776955</v>
       </c>
       <c r="E46">
-        <v>-0.03514497229421184</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.05219526600170264</v>
+      </c>
+      <c r="F46">
+        <v>-0.029913245543428</v>
+      </c>
+      <c r="G46">
+        <v>0.06562412651869615</v>
+      </c>
+      <c r="H46">
+        <v>0.10062613756392</v>
+      </c>
+      <c r="I46">
+        <v>-0.06090293309394555</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.07439489236813533</v>
+        <v>0.03009652292582082</v>
       </c>
       <c r="C47">
-        <v>0.1098220334214529</v>
+        <v>0.1283080374931623</v>
       </c>
       <c r="D47">
-        <v>0.04407206460041431</v>
+        <v>0.01986387006485537</v>
       </c>
       <c r="E47">
-        <v>-0.02224492332198558</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.008420506456844425</v>
+      </c>
+      <c r="F47">
+        <v>0.00413554598487077</v>
+      </c>
+      <c r="G47">
+        <v>0.05919335762173341</v>
+      </c>
+      <c r="H47">
+        <v>0.01195565838341972</v>
+      </c>
+      <c r="I47">
+        <v>-0.03073014126371524</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.009471899121947191</v>
+        <v>0.01492181048812526</v>
       </c>
       <c r="C48">
-        <v>0.01978734937469486</v>
+        <v>0.03563868360024103</v>
       </c>
       <c r="D48">
-        <v>0.05979876476854491</v>
+        <v>0.0686727636690186</v>
       </c>
       <c r="E48">
-        <v>-0.05849441580859484</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.02694469807656638</v>
+      </c>
+      <c r="F48">
+        <v>-0.05405244769547016</v>
+      </c>
+      <c r="G48">
+        <v>0.0541648738000782</v>
+      </c>
+      <c r="H48">
+        <v>0.08558052737991621</v>
+      </c>
+      <c r="I48">
+        <v>-0.06000986045328825</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.0313441411836855</v>
+        <v>0.01225023493487032</v>
       </c>
       <c r="C50">
-        <v>0.05956278372001158</v>
+        <v>0.07706139324473021</v>
       </c>
       <c r="D50">
-        <v>0.05502476814795638</v>
+        <v>0.04488237409351933</v>
       </c>
       <c r="E50">
-        <v>-0.01717756098087641</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01889964046947883</v>
+      </c>
+      <c r="F50">
+        <v>-0.008154295492727354</v>
+      </c>
+      <c r="G50">
+        <v>0.01012828640096145</v>
+      </c>
+      <c r="H50">
+        <v>0.01946560917779384</v>
+      </c>
+      <c r="I50">
+        <v>-0.02977577424306033</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.003326590787251704</v>
+        <v>0.0002145094924664883</v>
       </c>
       <c r="C51">
-        <v>0.006525624015542238</v>
+        <v>0.01880216186962482</v>
       </c>
       <c r="D51">
-        <v>0.04581948737471346</v>
+        <v>0.0445612218776218</v>
       </c>
       <c r="E51">
-        <v>-0.02203931357823799</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.04030347955941686</v>
+      </c>
+      <c r="F51">
+        <v>-0.0348431301939519</v>
+      </c>
+      <c r="G51">
+        <v>0.0101702223791037</v>
+      </c>
+      <c r="H51">
+        <v>0.07223314103722077</v>
+      </c>
+      <c r="I51">
+        <v>-0.02014151648097994</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1054150602755761</v>
+        <v>0.05346210464394534</v>
       </c>
       <c r="C53">
-        <v>0.129099148702617</v>
+        <v>0.1595391110288662</v>
       </c>
       <c r="D53">
-        <v>-0.01539872528890188</v>
+        <v>-0.02569574581601967</v>
       </c>
       <c r="E53">
-        <v>-0.03825137959931204</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03173889279782859</v>
+      </c>
+      <c r="F53">
+        <v>-0.04320181315294565</v>
+      </c>
+      <c r="G53">
+        <v>0.008229760914375779</v>
+      </c>
+      <c r="H53">
+        <v>0.008692439237414</v>
+      </c>
+      <c r="I53">
+        <v>-0.01676058387503671</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01086252599242426</v>
+        <v>0.01090535793425196</v>
       </c>
       <c r="C54">
-        <v>0.02377448536259129</v>
+        <v>0.0413970967109155</v>
       </c>
       <c r="D54">
-        <v>0.08234884302898114</v>
+        <v>0.07473054589413192</v>
       </c>
       <c r="E54">
-        <v>-0.01961480036229867</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.02619052133857088</v>
+      </c>
+      <c r="F54">
+        <v>-0.002558209533241795</v>
+      </c>
+      <c r="G54">
+        <v>0.0301971944398824</v>
+      </c>
+      <c r="H54">
+        <v>0.06011252606514221</v>
+      </c>
+      <c r="I54">
+        <v>-0.06147719476531177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.0912972825102768</v>
+        <v>0.04088146723254477</v>
       </c>
       <c r="C55">
-        <v>0.1096146427974523</v>
+        <v>0.1313951628642994</v>
       </c>
       <c r="D55">
-        <v>4.084603246864417e-05</v>
+        <v>-0.04191022173659849</v>
       </c>
       <c r="E55">
-        <v>0.004230083563278871</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.003888823625704433</v>
+      </c>
+      <c r="F55">
+        <v>-0.002210836739235859</v>
+      </c>
+      <c r="G55">
+        <v>0.000383146740771973</v>
+      </c>
+      <c r="H55">
+        <v>0.007704779433416698</v>
+      </c>
+      <c r="I55">
+        <v>0.006634902722308979</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1294994412642094</v>
+        <v>0.0543105297462687</v>
       </c>
       <c r="C56">
-        <v>0.1505219650274141</v>
+        <v>0.1903685964984643</v>
       </c>
       <c r="D56">
-        <v>0.005839253564907354</v>
+        <v>-0.04070724342939579</v>
       </c>
       <c r="E56">
-        <v>0.008362935012462195</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03056880306018128</v>
+      </c>
+      <c r="F56">
+        <v>-0.005042698161042457</v>
+      </c>
+      <c r="G56">
+        <v>-0.03445660018671551</v>
+      </c>
+      <c r="H56">
+        <v>0.03541530432066398</v>
+      </c>
+      <c r="I56">
+        <v>-0.009637703609270019</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.006157594083307816</v>
+        <v>0.003515626972656994</v>
       </c>
       <c r="C58">
-        <v>0.01784751503416186</v>
+        <v>0.06422264879691243</v>
       </c>
       <c r="D58">
-        <v>0.2026163649607222</v>
+        <v>0.2797197973096673</v>
       </c>
       <c r="E58">
-        <v>-0.1499333821892499</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.04958013373077705</v>
+      </c>
+      <c r="F58">
+        <v>-0.1308135722699738</v>
+      </c>
+      <c r="G58">
+        <v>-0.1588463226654472</v>
+      </c>
+      <c r="H58">
+        <v>0.00306377885716286</v>
+      </c>
+      <c r="I58">
+        <v>-0.04489203965771912</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1874745755899458</v>
+        <v>0.2549252887625575</v>
       </c>
       <c r="C59">
-        <v>-0.1359386526925226</v>
+        <v>-0.05563403044244783</v>
       </c>
       <c r="D59">
-        <v>0.03460060760385161</v>
+        <v>0.04834159804465907</v>
       </c>
       <c r="E59">
-        <v>-0.0312346199630718</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.02013874062729042</v>
+      </c>
+      <c r="F59">
+        <v>-0.02211390301586656</v>
+      </c>
+      <c r="G59">
+        <v>-0.01326740206694399</v>
+      </c>
+      <c r="H59">
+        <v>0.02288891101298771</v>
+      </c>
+      <c r="I59">
+        <v>0.02948064477487045</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1825729818968448</v>
+        <v>0.1495357678862848</v>
       </c>
       <c r="C60">
-        <v>0.1060086042523339</v>
+        <v>0.1742884387407891</v>
       </c>
       <c r="D60">
-        <v>0.2200395275888962</v>
+        <v>0.07695766922440322</v>
       </c>
       <c r="E60">
-        <v>0.02781484555401307</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.1461430360905338</v>
+      </c>
+      <c r="F60">
+        <v>0.1913913597265652</v>
+      </c>
+      <c r="G60">
+        <v>0.09111302467841444</v>
+      </c>
+      <c r="H60">
+        <v>-0.263187346201751</v>
+      </c>
+      <c r="I60">
+        <v>0.2222492890452822</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.02482229615544902</v>
+        <v>0.01161003237845757</v>
       </c>
       <c r="C61">
-        <v>0.05663810266522711</v>
+        <v>0.07800395387371434</v>
       </c>
       <c r="D61">
-        <v>0.07765331288177281</v>
+        <v>0.06480204511116008</v>
       </c>
       <c r="E61">
-        <v>-0.005512654365441115</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.04237313458663662</v>
+      </c>
+      <c r="F61">
+        <v>0.01533795108251377</v>
+      </c>
+      <c r="G61">
+        <v>0.07222853511133129</v>
+      </c>
+      <c r="H61">
+        <v>0.04565774622574131</v>
+      </c>
+      <c r="I61">
+        <v>-0.03636650624231423</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.01064506633402468</v>
+        <v>0.009828887402022262</v>
       </c>
       <c r="C63">
-        <v>0.02767936364329909</v>
+        <v>0.04167453981477433</v>
       </c>
       <c r="D63">
-        <v>0.07720644375635961</v>
+        <v>0.05279571942406184</v>
       </c>
       <c r="E63">
-        <v>-0.03391058953780057</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.05976482876554358</v>
+      </c>
+      <c r="F63">
+        <v>-0.0211466311050208</v>
+      </c>
+      <c r="G63">
+        <v>0.04194358856550209</v>
+      </c>
+      <c r="H63">
+        <v>0.05425890544626173</v>
+      </c>
+      <c r="I63">
+        <v>-0.04458238838051075</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05372113361473624</v>
+        <v>0.01525920019060194</v>
       </c>
       <c r="C64">
-        <v>0.08660590230143642</v>
+        <v>0.1022548797511396</v>
       </c>
       <c r="D64">
-        <v>0.01227240136674306</v>
+        <v>0.008293564571301005</v>
       </c>
       <c r="E64">
-        <v>-0.02298480940351987</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02301013070256594</v>
+      </c>
+      <c r="F64">
+        <v>-0.01917844123745119</v>
+      </c>
+      <c r="G64">
+        <v>0.04831174388304697</v>
+      </c>
+      <c r="H64">
+        <v>0.01143463094718758</v>
+      </c>
+      <c r="I64">
+        <v>-0.04946277508603168</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02573913610091477</v>
+        <v>0.02318865078661938</v>
       </c>
       <c r="C65">
-        <v>0.02078216758615262</v>
+        <v>0.0485448788915114</v>
       </c>
       <c r="D65">
-        <v>0.1025045113854029</v>
+        <v>0.1048472538757872</v>
       </c>
       <c r="E65">
-        <v>-0.03688550413600616</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.05678847296530919</v>
+      </c>
+      <c r="F65">
+        <v>0.004598412905286703</v>
+      </c>
+      <c r="G65">
+        <v>0.03868906496760283</v>
+      </c>
+      <c r="H65">
+        <v>-0.03302141841288223</v>
+      </c>
+      <c r="I65">
+        <v>-0.02683268558210423</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02132780236382631</v>
+        <v>0.00188028713392719</v>
       </c>
       <c r="C66">
-        <v>0.07249197807587807</v>
+        <v>0.1017467080942675</v>
       </c>
       <c r="D66">
-        <v>0.1169825072585979</v>
+        <v>0.1109816414251661</v>
       </c>
       <c r="E66">
-        <v>-0.01650320602155247</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.05423347376322989</v>
+      </c>
+      <c r="F66">
+        <v>0.007700882285303171</v>
+      </c>
+      <c r="G66">
+        <v>0.03944356289632792</v>
+      </c>
+      <c r="H66">
+        <v>0.05136089496092264</v>
+      </c>
+      <c r="I66">
+        <v>-0.04764434299416136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02271887395758295</v>
+        <v>0.01932241110036623</v>
       </c>
       <c r="C67">
-        <v>0.0215277918640982</v>
+        <v>0.03700331367334304</v>
       </c>
       <c r="D67">
-        <v>0.04706405648114324</v>
+        <v>0.04313708460978026</v>
       </c>
       <c r="E67">
-        <v>0.01417141472556486</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.01878173127577686</v>
+      </c>
+      <c r="F67">
+        <v>0.0267925497013393</v>
+      </c>
+      <c r="G67">
+        <v>0.02430650874691554</v>
+      </c>
+      <c r="H67">
+        <v>0.04138112442010802</v>
+      </c>
+      <c r="I67">
+        <v>-0.05280316828850695</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2103854938450773</v>
+        <v>0.2775963768190384</v>
       </c>
       <c r="C68">
-        <v>-0.1474555085507507</v>
+        <v>-0.06157876197011264</v>
       </c>
       <c r="D68">
-        <v>0.02514276725397624</v>
+        <v>0.02857387632225308</v>
       </c>
       <c r="E68">
-        <v>-0.02273387002981036</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.0007401352054501954</v>
+      </c>
+      <c r="F68">
+        <v>-0.02139242930233805</v>
+      </c>
+      <c r="G68">
+        <v>-0.08211379896170927</v>
+      </c>
+      <c r="H68">
+        <v>-0.002901403604463191</v>
+      </c>
+      <c r="I68">
+        <v>0.01071133803254767</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.05172511853230578</v>
+        <v>0.01415681735277402</v>
       </c>
       <c r="C69">
-        <v>0.1195429158458998</v>
+        <v>0.1182184962150478</v>
       </c>
       <c r="D69">
-        <v>0.06871284267792599</v>
+        <v>0.0212880833386768</v>
       </c>
       <c r="E69">
-        <v>-0.02044270807114901</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.01167138679375558</v>
+      </c>
+      <c r="F69">
+        <v>0.01184757871694818</v>
+      </c>
+      <c r="G69">
+        <v>0.03966627595589841</v>
+      </c>
+      <c r="H69">
+        <v>0.01587480079594147</v>
+      </c>
+      <c r="I69">
+        <v>-0.0151113576529254</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.219101918252577</v>
+        <v>0.2772076231617725</v>
       </c>
       <c r="C71">
-        <v>-0.1695996151198512</v>
+        <v>-0.07738647668786694</v>
       </c>
       <c r="D71">
-        <v>0.01725606220745023</v>
+        <v>0.01446312355234534</v>
       </c>
       <c r="E71">
-        <v>-0.01144684043500129</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.001044275249745729</v>
+      </c>
+      <c r="F71">
+        <v>-0.01309348060357231</v>
+      </c>
+      <c r="G71">
+        <v>-0.03041203091638859</v>
+      </c>
+      <c r="H71">
+        <v>0.01178877669570935</v>
+      </c>
+      <c r="I71">
+        <v>-0.009376781999726115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.09915212738136274</v>
+        <v>0.05793013100873726</v>
       </c>
       <c r="C72">
-        <v>0.07661496787978993</v>
+        <v>0.1271986174683719</v>
       </c>
       <c r="D72">
-        <v>0.122935437579831</v>
+        <v>0.05894229913260998</v>
       </c>
       <c r="E72">
-        <v>-0.01761269957426912</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.07598083434736863</v>
+      </c>
+      <c r="F72">
+        <v>0.02138295244083529</v>
+      </c>
+      <c r="G72">
+        <v>0.07011550411582544</v>
+      </c>
+      <c r="H72">
+        <v>-0.0009199355726062292</v>
+      </c>
+      <c r="I72">
+        <v>-0.01443011865953402</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1722281812674891</v>
+        <v>0.1432760137898966</v>
       </c>
       <c r="C73">
-        <v>0.07628578649554536</v>
+        <v>0.1554975955734839</v>
       </c>
       <c r="D73">
-        <v>0.2732300246858436</v>
+        <v>0.08268045837916216</v>
       </c>
       <c r="E73">
-        <v>0.06878614600074584</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.2679846400772081</v>
+      </c>
+      <c r="F73">
+        <v>0.271743251496688</v>
+      </c>
+      <c r="G73">
+        <v>0.2610635404069658</v>
+      </c>
+      <c r="H73">
+        <v>-0.3342193085469091</v>
+      </c>
+      <c r="I73">
+        <v>0.1812574040072451</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1028153324355295</v>
+        <v>0.05095252142363484</v>
       </c>
       <c r="C74">
-        <v>0.118885396549643</v>
+        <v>0.1440205061543242</v>
       </c>
       <c r="D74">
-        <v>-0.03863282586830872</v>
+        <v>-0.05053305175415109</v>
       </c>
       <c r="E74">
-        <v>-0.02349250479088015</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01455293091296246</v>
+      </c>
+      <c r="F74">
+        <v>-0.02868614016007731</v>
+      </c>
+      <c r="G74">
+        <v>-0.006027145997541459</v>
+      </c>
+      <c r="H74">
+        <v>-0.02110960861754275</v>
+      </c>
+      <c r="I74">
+        <v>0.01536992806197528</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2203304949384897</v>
+        <v>0.09594137339776486</v>
       </c>
       <c r="C75">
-        <v>0.2067262701654468</v>
+        <v>0.265958261566492</v>
       </c>
       <c r="D75">
-        <v>-0.08506737070180671</v>
+        <v>-0.127853861193867</v>
       </c>
       <c r="E75">
-        <v>0.08466138534266296</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.0979654028862334</v>
+      </c>
+      <c r="F75">
+        <v>0.04566800035848958</v>
+      </c>
+      <c r="G75">
+        <v>-0.08734713104197502</v>
+      </c>
+      <c r="H75">
+        <v>0.04934669841507065</v>
+      </c>
+      <c r="I75">
+        <v>-0.08048650457340782</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1314582143525327</v>
+        <v>0.05518103630213025</v>
       </c>
       <c r="C76">
-        <v>0.1415100929739194</v>
+        <v>0.1787065740144203</v>
       </c>
       <c r="D76">
-        <v>0.001987275314191199</v>
+        <v>-0.05033210366378698</v>
       </c>
       <c r="E76">
-        <v>0.01151328623339328</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02286423626235954</v>
+      </c>
+      <c r="F76">
+        <v>0.002626318919793495</v>
+      </c>
+      <c r="G76">
+        <v>-0.02099403109831128</v>
+      </c>
+      <c r="H76">
+        <v>0.04229053822280151</v>
+      </c>
+      <c r="I76">
+        <v>-0.03118409923897316</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.01573139221870608</v>
+        <v>-8.928213228249811e-05</v>
       </c>
       <c r="C77">
-        <v>0.06863141041215602</v>
+        <v>0.1114518867438588</v>
       </c>
       <c r="D77">
-        <v>-0.003155353106351427</v>
+        <v>0.391025764568272</v>
       </c>
       <c r="E77">
-        <v>-0.0168562753853815</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.8264439326454315</v>
+      </c>
+      <c r="F77">
+        <v>0.1902407417493072</v>
+      </c>
+      <c r="G77">
+        <v>0.08647085946081454</v>
+      </c>
+      <c r="H77">
+        <v>-0.1984767637687689</v>
+      </c>
+      <c r="I77">
+        <v>0.05063418193486562</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.03015434462595313</v>
+        <v>0.01696092998646575</v>
       </c>
       <c r="C78">
-        <v>0.0752735468121309</v>
+        <v>0.09424967556639781</v>
       </c>
       <c r="D78">
-        <v>0.1350517470405584</v>
+        <v>0.09752781603983071</v>
       </c>
       <c r="E78">
-        <v>-0.07600303500789028</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.06435468543723435</v>
+      </c>
+      <c r="F78">
+        <v>-0.04862977829340285</v>
+      </c>
+      <c r="G78">
+        <v>-0.0112495997038477</v>
+      </c>
+      <c r="H78">
+        <v>0.08277709764042739</v>
+      </c>
+      <c r="I78">
+        <v>0.01932244492615835</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.1004389627582462</v>
+        <v>0.03861289481046192</v>
       </c>
       <c r="C79">
-        <v>0.1937661574574361</v>
+        <v>0.2025393837655959</v>
       </c>
       <c r="D79">
-        <v>-0.3964242722512451</v>
+        <v>-0.1217330203708975</v>
       </c>
       <c r="E79">
-        <v>-0.8118274530125846</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.09041256014639698</v>
+      </c>
+      <c r="F79">
+        <v>-0.8072706415965464</v>
+      </c>
+      <c r="G79">
+        <v>0.1638516677179005</v>
+      </c>
+      <c r="H79">
+        <v>-0.3718398379107118</v>
+      </c>
+      <c r="I79">
+        <v>0.1321843221439537</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.004573511569766234</v>
+        <v>0.006605474096831742</v>
       </c>
       <c r="C80">
-        <v>0.04597729681138363</v>
+        <v>0.04574794499774631</v>
       </c>
       <c r="D80">
-        <v>0.04924547353641522</v>
+        <v>0.03371688053917691</v>
       </c>
       <c r="E80">
-        <v>-0.008505499302115372</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.0483737084706858</v>
+      </c>
+      <c r="F80">
+        <v>0.001232019635513838</v>
+      </c>
+      <c r="G80">
+        <v>0.01834020814580698</v>
+      </c>
+      <c r="H80">
+        <v>0.05351534430545405</v>
+      </c>
+      <c r="I80">
+        <v>0.07276400209406735</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1116199878664513</v>
+        <v>0.03904223437202128</v>
       </c>
       <c r="C81">
-        <v>0.1371816440692167</v>
+        <v>0.1637475415876032</v>
       </c>
       <c r="D81">
-        <v>-0.08328675454631926</v>
+        <v>-0.07706895510418403</v>
       </c>
       <c r="E81">
-        <v>-0.004973946953982621</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.05172381767080644</v>
+      </c>
+      <c r="F81">
+        <v>-0.05324428962212559</v>
+      </c>
+      <c r="G81">
+        <v>-0.02211754865306772</v>
+      </c>
+      <c r="H81">
+        <v>0.08671093720452729</v>
+      </c>
+      <c r="I81">
+        <v>-0.02247812697706505</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2333967041285239</v>
+        <v>0.08220293825538667</v>
       </c>
       <c r="C82">
-        <v>0.2990719550276443</v>
+        <v>0.308813022646387</v>
       </c>
       <c r="D82">
-        <v>-0.1502435235522817</v>
+        <v>-0.2352474474262644</v>
       </c>
       <c r="E82">
-        <v>0.2346418506354986</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.07833718659907603</v>
+      </c>
+      <c r="F82">
+        <v>0.1319600909683267</v>
+      </c>
+      <c r="G82">
+        <v>-0.04295316243670815</v>
+      </c>
+      <c r="H82">
+        <v>0.1424167347837446</v>
+      </c>
+      <c r="I82">
+        <v>-0.04317535599626203</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.01169934228246986</v>
+        <v>-0.01255762904974777</v>
       </c>
       <c r="C83">
-        <v>0.05323475122756478</v>
+        <v>0.02173599465805318</v>
       </c>
       <c r="D83">
-        <v>-0.001495942843986393</v>
+        <v>0.02524580931181331</v>
       </c>
       <c r="E83">
-        <v>-0.03091398342191186</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.08871877325964457</v>
+      </c>
+      <c r="F83">
+        <v>-0.06346106854706206</v>
+      </c>
+      <c r="G83">
+        <v>0.01591041039672989</v>
+      </c>
+      <c r="H83">
+        <v>0.446864054939576</v>
+      </c>
+      <c r="I83">
+        <v>0.8205553516619765</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.0002748781957686104</v>
+        <v>-0.004865687598250892</v>
       </c>
       <c r="C84">
-        <v>-0.001589483807106712</v>
+        <v>0.0174670213000246</v>
       </c>
       <c r="D84">
-        <v>0.0004950995780374668</v>
+        <v>0.04144364335198256</v>
       </c>
       <c r="E84">
-        <v>0.002336971978368678</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.005450960955629258</v>
+      </c>
+      <c r="F84">
+        <v>-0.02967446924150759</v>
+      </c>
+      <c r="G84">
+        <v>-0.02677223319019478</v>
+      </c>
+      <c r="H84">
+        <v>0.04056555131247776</v>
+      </c>
+      <c r="I84">
+        <v>-0.07504425471736847</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1351435993648437</v>
+        <v>0.05286377894329668</v>
       </c>
       <c r="C85">
-        <v>0.145877463046346</v>
+        <v>0.179386506328394</v>
       </c>
       <c r="D85">
-        <v>-0.06039361355225394</v>
+        <v>-0.1070049414461686</v>
       </c>
       <c r="E85">
-        <v>-0.03059132462014887</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.005489043486864268</v>
+      </c>
+      <c r="F85">
+        <v>-0.06630409254539102</v>
+      </c>
+      <c r="G85">
+        <v>-0.02877490809777645</v>
+      </c>
+      <c r="H85">
+        <v>-0.001229219836489738</v>
+      </c>
+      <c r="I85">
+        <v>-0.009309988241300972</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.02007855123011629</v>
+        <v>0.01565588045086086</v>
       </c>
       <c r="C86">
-        <v>0.012114084425053</v>
+        <v>0.04167205193319915</v>
       </c>
       <c r="D86">
-        <v>0.0891376277290693</v>
+        <v>0.1086117947335967</v>
       </c>
       <c r="E86">
-        <v>-0.03713912233923465</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.01324006203545445</v>
+      </c>
+      <c r="F86">
+        <v>-0.01672107671129431</v>
+      </c>
+      <c r="G86">
+        <v>0.01908370329894444</v>
+      </c>
+      <c r="H86">
+        <v>-0.02105685865402144</v>
+      </c>
+      <c r="I86">
+        <v>-0.02345890539599042</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02182002852935173</v>
+        <v>0.009559050131431768</v>
       </c>
       <c r="C87">
-        <v>0.03200171231115707</v>
+        <v>0.06594069397138495</v>
       </c>
       <c r="D87">
-        <v>0.1177666606214252</v>
+        <v>0.1352164241880844</v>
       </c>
       <c r="E87">
-        <v>-0.07351889818605471</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.02287309408672913</v>
+      </c>
+      <c r="F87">
+        <v>-0.04367121456089275</v>
+      </c>
+      <c r="G87">
+        <v>-0.01590091373519187</v>
+      </c>
+      <c r="H87">
+        <v>0.08910541953543349</v>
+      </c>
+      <c r="I87">
+        <v>-0.02309522395099505</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05051801726778958</v>
+        <v>0.03242001358090689</v>
       </c>
       <c r="C88">
-        <v>0.0458739346784619</v>
+        <v>0.0694751858798334</v>
       </c>
       <c r="D88">
-        <v>0.01182695281449936</v>
+        <v>0.01313499365015838</v>
       </c>
       <c r="E88">
-        <v>-0.02910125010779943</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.02622035956630407</v>
+      </c>
+      <c r="F88">
+        <v>-0.01967066733444338</v>
+      </c>
+      <c r="G88">
+        <v>0.0226140504725145</v>
+      </c>
+      <c r="H88">
+        <v>-0.003524110666972666</v>
+      </c>
+      <c r="I88">
+        <v>-0.02533605013048379</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3320488369039861</v>
+        <v>0.4062058489188594</v>
       </c>
       <c r="C89">
-        <v>-0.3117940960573675</v>
+        <v>-0.150489727930418</v>
       </c>
       <c r="D89">
-        <v>0.005768299723098055</v>
+        <v>0.04614588382525472</v>
       </c>
       <c r="E89">
-        <v>-0.08948471870619751</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.04498307443790295</v>
+      </c>
+      <c r="F89">
+        <v>-0.05897779645637057</v>
+      </c>
+      <c r="G89">
+        <v>0.0469165414044461</v>
+      </c>
+      <c r="H89">
+        <v>0.1622195292407496</v>
+      </c>
+      <c r="I89">
+        <v>0.02451469789454222</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2656015479181162</v>
+        <v>0.3212762253044321</v>
       </c>
       <c r="C90">
-        <v>-0.2277767564428024</v>
+        <v>-0.1018545179415949</v>
       </c>
       <c r="D90">
-        <v>0.05508637145684395</v>
+        <v>0.03243377963403541</v>
       </c>
       <c r="E90">
-        <v>-5.235024975534102e-05</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.005721229786753801</v>
+      </c>
+      <c r="F90">
+        <v>0.00727163219995623</v>
+      </c>
+      <c r="G90">
+        <v>-0.05904380992439649</v>
+      </c>
+      <c r="H90">
+        <v>0.04190435759653148</v>
+      </c>
+      <c r="I90">
+        <v>0.0004698645666754231</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1469763411901544</v>
+        <v>0.06460453657363044</v>
       </c>
       <c r="C91">
-        <v>0.1912884534292331</v>
+        <v>0.2049594901156223</v>
       </c>
       <c r="D91">
-        <v>-0.112994092590678</v>
+        <v>-0.1107958648096918</v>
       </c>
       <c r="E91">
-        <v>-0.03253974605836041</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.06999066642215758</v>
+      </c>
+      <c r="F91">
+        <v>-0.05718219167414687</v>
+      </c>
+      <c r="G91">
+        <v>-0.01318594464190108</v>
+      </c>
+      <c r="H91">
+        <v>0.005645737646670573</v>
+      </c>
+      <c r="I91">
+        <v>0.02540079396176528</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2485020954414177</v>
+        <v>0.3402208321826822</v>
       </c>
       <c r="C92">
-        <v>-0.2553080086271344</v>
+        <v>-0.1388431796012241</v>
       </c>
       <c r="D92">
-        <v>-0.06012164087430134</v>
+        <v>0.01856495047748222</v>
       </c>
       <c r="E92">
-        <v>-0.01533933965764019</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.06530602790685104</v>
+      </c>
+      <c r="F92">
+        <v>-0.04336891564435488</v>
+      </c>
+      <c r="G92">
+        <v>-0.01376948403187485</v>
+      </c>
+      <c r="H92">
+        <v>-0.01115978126237104</v>
+      </c>
+      <c r="I92">
+        <v>-0.138667444742673</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2894724435848857</v>
+        <v>0.3354625154271555</v>
       </c>
       <c r="C93">
-        <v>-0.2409478842529881</v>
+        <v>-0.1104020971974723</v>
       </c>
       <c r="D93">
-        <v>0.001444454667865222</v>
+        <v>-0.01742661759597554</v>
       </c>
       <c r="E93">
-        <v>-0.01472088863433514</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.02238868848552382</v>
+      </c>
+      <c r="F93">
+        <v>-0.01082988178077719</v>
+      </c>
+      <c r="G93">
+        <v>0.004061443540718527</v>
+      </c>
+      <c r="H93">
+        <v>-0.04225082832512125</v>
+      </c>
+      <c r="I93">
+        <v>-0.01824751636189679</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2753311138222332</v>
+        <v>0.1182233089557892</v>
       </c>
       <c r="C94">
-        <v>0.2738958843487425</v>
+        <v>0.3362122826267052</v>
       </c>
       <c r="D94">
-        <v>-0.2382656146379881</v>
+        <v>-0.3528513601856191</v>
       </c>
       <c r="E94">
-        <v>0.3002142426006992</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.07694835364007822</v>
+      </c>
+      <c r="F94">
+        <v>0.13988142795266</v>
+      </c>
+      <c r="G94">
+        <v>-0.2971728166778504</v>
+      </c>
+      <c r="H94">
+        <v>0.1229186616281129</v>
+      </c>
+      <c r="I94">
+        <v>-0.07271492283364862</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.008501344496450992</v>
+        <v>0.01209868700222955</v>
       </c>
       <c r="C95">
-        <v>0.04131101271123448</v>
+        <v>0.06637050705479836</v>
       </c>
       <c r="D95">
-        <v>-0.00919651879975516</v>
+        <v>0.1035234894458826</v>
       </c>
       <c r="E95">
-        <v>0.009208955460581182</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.1416022466928947</v>
+      </c>
+      <c r="F95">
+        <v>0.03228371219628772</v>
+      </c>
+      <c r="G95">
+        <v>0.2309417553869996</v>
+      </c>
+      <c r="H95">
+        <v>0.1609785217171545</v>
+      </c>
+      <c r="I95">
+        <v>-0.2104249132667416</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001881806360780129</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0009822503032365921</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0004889922906036275</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.003447231079734201</v>
+      </c>
+      <c r="F97">
+        <v>-0.0002697253268317976</v>
+      </c>
+      <c r="G97">
+        <v>0.0006442906119659387</v>
+      </c>
+      <c r="H97">
+        <v>0.001130011944747958</v>
+      </c>
+      <c r="I97">
+        <v>-0.006657071596852869</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1510283378694735</v>
+        <v>0.1252769642109362</v>
       </c>
       <c r="C98">
-        <v>0.09335446422561704</v>
+        <v>0.1584757904006106</v>
       </c>
       <c r="D98">
-        <v>0.1818080236573095</v>
+        <v>0.04684021586647757</v>
       </c>
       <c r="E98">
-        <v>0.07792062724161919</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.184138872410078</v>
+      </c>
+      <c r="F98">
+        <v>0.2236420295983247</v>
+      </c>
+      <c r="G98">
+        <v>0.1721499330837027</v>
+      </c>
+      <c r="H98">
+        <v>-0.2663555233301756</v>
+      </c>
+      <c r="I98">
+        <v>0.1905610613548525</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.002631971511532588</v>
+        <v>0.001094061330327127</v>
       </c>
       <c r="C101">
-        <v>0.02320077482250679</v>
+        <v>0.03990198905418875</v>
       </c>
       <c r="D101">
-        <v>0.07564103034335085</v>
+        <v>0.08975324658467249</v>
       </c>
       <c r="E101">
-        <v>-0.04081988567458223</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.07011650260129634</v>
+      </c>
+      <c r="F101">
+        <v>-0.02787550911561524</v>
+      </c>
+      <c r="G101">
+        <v>0.1055677209488996</v>
+      </c>
+      <c r="H101">
+        <v>0.1324225871947606</v>
+      </c>
+      <c r="I101">
+        <v>-0.04303617199083692</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1011105040728475</v>
+        <v>0.02561567512962796</v>
       </c>
       <c r="C102">
-        <v>0.1606804068293795</v>
+        <v>0.1455613971353275</v>
       </c>
       <c r="D102">
-        <v>-0.0490296859142511</v>
+        <v>-0.1042517215695998</v>
       </c>
       <c r="E102">
-        <v>0.1077533687743925</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.04706143009737161</v>
+      </c>
+      <c r="F102">
+        <v>0.08353443869849911</v>
+      </c>
+      <c r="G102">
+        <v>0.01667792488574273</v>
+      </c>
+      <c r="H102">
+        <v>0.03170500103635636</v>
+      </c>
+      <c r="I102">
+        <v>0.005266211841132532</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
